--- a/HOURS.xlsx
+++ b/HOURS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAXION UNIVERSITY STUFF\year 4\HOUDINI COURSE\REPO\HOUDINI-XR-LAB-COURSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88120661-485E-44DC-AC50-EE4E67E5A3CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C95EB9-598A-45CC-B695-6FB69CFDE177}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>Duration</t>
   </si>
@@ -61,6 +61,30 @@
   </si>
   <si>
     <t>30.06.2021</t>
+  </si>
+  <si>
+    <t>Workshop</t>
+  </si>
+  <si>
+    <t>Lecture materials</t>
+  </si>
+  <si>
+    <t>06.04.2021</t>
+  </si>
+  <si>
+    <t>20.04.2021</t>
+  </si>
+  <si>
+    <t>04.05.2021</t>
+  </si>
+  <si>
+    <t>18.05.2021</t>
+  </si>
+  <si>
+    <t>01.06.2021</t>
+  </si>
+  <si>
+    <t>15.06.2021</t>
   </si>
 </sst>
 </file>
@@ -235,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -258,6 +282,9 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,14 +565,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
     <col min="3" max="3" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -647,6 +675,141 @@
       </c>
       <c r="D8" s="15"/>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="9">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="9">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="13">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="13">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HOURS.xlsx
+++ b/HOURS.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAXION UNIVERSITY STUFF\year 4\HOUDINI COURSE\REPO\HOUDINI-XR-LAB-COURSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C95EB9-598A-45CC-B695-6FB69CFDE177}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82381D41-22F1-46EC-9DA0-2C82B832E288}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="15576" windowHeight="11736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>Duration</t>
   </si>
@@ -39,9 +48,6 @@
     <t>Lecture</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>07.04.2021</t>
   </si>
   <si>
@@ -85,13 +91,70 @@
   </si>
   <si>
     <t>15.06.2021</t>
+  </si>
+  <si>
+    <t>14.04.2021</t>
+  </si>
+  <si>
+    <t>28.04.2021</t>
+  </si>
+  <si>
+    <t>12.05.2021</t>
+  </si>
+  <si>
+    <t>26.05.2021</t>
+  </si>
+  <si>
+    <t>23.06.2021</t>
+  </si>
+  <si>
+    <t>Suggested Date</t>
+  </si>
+  <si>
+    <t>09.06.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proceduralism </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solvers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rendering Mantra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Character Animations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloth Simulation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Houdini Engine </t>
+  </si>
+  <si>
+    <t>Free topic /Guest Lecturer</t>
+  </si>
+  <si>
+    <t>Course preparation</t>
+  </si>
+  <si>
+    <t>18.03.2021</t>
+  </si>
+  <si>
+    <t>Blue numbers not final</t>
+  </si>
+  <si>
+    <t>24.03.2022</t>
+  </si>
+  <si>
+    <t>20.03.2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +176,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -128,7 +206,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -205,17 +283,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -225,15 +292,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -245,7 +303,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -253,13 +313,24 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -272,19 +343,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,16 +665,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -585,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -598,217 +701,291 @@
       <c r="B2" s="5">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="D3" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B4" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="D4" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B5" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="D5" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B6" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="D6" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B7" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="D7" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B8" s="9">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="13">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>11</v>
-      </c>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>12</v>
       </c>
       <c r="B9" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="20"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="21"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="21"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="9">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="22"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="9">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="B15" s="25">
+        <v>0.125</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="9">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="B16" s="26">
+        <v>0.125</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="9">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="B17" s="26">
+        <v>0.125</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="9">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="B18" s="26">
+        <v>0.125</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="13">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="B19" s="26">
+        <v>0.125</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="27">
+        <v>0.125</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="5">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="9">
+      <c r="C21" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="9">
+      <c r="C22" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="F22" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="9">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="9">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="9">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="13">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C21" s="14"/>
+      <c r="C23" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
